--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD1_Companies_150521.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD1_Companies_150521.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,9 +281,6 @@
     <t>TB Company Importance [Importance]</t>
   </si>
   <si>
-    <t>TB Relations IPT [Relation]</t>
-  </si>
-  <si>
     <t>Único por país. Mayúsculas
 -Regla Duplicidad-</t>
   </si>
@@ -346,16 +343,8 @@
  [Status]</t>
   </si>
   <si>
-    <t>BD11 Staff
- [Initials, Full name]</t>
-  </si>
-  <si>
     <t>TB Activity Level
 [Level]</t>
-  </si>
-  <si>
-    <t>TB Activity Sector 
-[Sector]</t>
   </si>
   <si>
     <t>TB Languages 
@@ -431,6 +420,18 @@
   <si>
     <t>Nivel de actividad de la compañía. 7 valores:Cliente reciente, Cliente antiguo con actividad comercial, Cliente antiguo sin actividad comercial, Ofertado
 Contactado sin ofertas, Sin actividad en CRM, Cliente reciente</t>
+  </si>
+  <si>
+    <t>TB Relations IPT 
+[Relation]</t>
+  </si>
+  <si>
+    <t>BD11 Staff
+ [Initials + Full name]</t>
+  </si>
+  <si>
+    <t>TB Activity Sectors
+[Sector]</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1218,7 @@
     <row r="2" spans="1:7" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>28</v>
@@ -1227,10 +1228,10 @@
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -1269,7 +1270,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>55</v>
@@ -1284,7 +1285,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -1326,14 +1327,14 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
@@ -1347,14 +1348,14 @@
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
@@ -1368,16 +1369,16 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -1389,14 +1390,14 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -1404,20 +1405,20 @@
         <v>13</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,7 +1495,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>40</v>
@@ -1598,14 +1599,14 @@
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -1620,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="39" t="s">
@@ -1674,37 +1675,37 @@
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>77</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
@@ -1713,13 +1714,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
@@ -1734,20 +1735,20 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
@@ -1760,14 +1761,14 @@
         <v>52</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -1776,20 +1777,20 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
@@ -1798,20 +1799,20 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -1820,7 +1821,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>52</v>
@@ -1833,7 +1834,7 @@
     <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
@@ -1842,20 +1843,20 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -1864,13 +1865,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" s="31"/>
     </row>
@@ -1965,13 +1966,13 @@
     </row>
     <row r="45" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="48"/>
